--- a/Test Scripts/Auth/SpeckleAuthTest.xlsx
+++ b/Test Scripts/Auth/SpeckleAuthTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alombardi\GitHub\Speckle_Toolkit\Test Scripts\Auth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A017E1B-2FCA-43F1-8A45-E0DA9EAEBC57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26335B6A-B113-4759-80F1-B469EA528A42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{67D43886-511F-4BC4-8FEF-B528438FE945}"/>
+    <workbookView xWindow="1920" yWindow="1500" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{67D43886-511F-4BC4-8FEF-B528438FE945}"/>
   </bookViews>
   <sheets>
     <sheet name="BHoM_Used" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>UB 1016x305x350 [ymnUwWPY]</t>
   </si>
   <si>
-    <t>L 40x20x4.0 [lQFHX038]</t>
+    <t>L 200x150x18.0 [FAv5eren]</t>
   </si>
 </sst>
 </file>
@@ -292,12 +292,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,6 +301,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,6 +311,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1107,27 +1107,27 @@
   <dimension ref="A2:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -1153,17 +1153,17 @@
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">
         <f>_xll.Compute.Speckle.LanchAuth()</f>
-        <v>Account [+BoOSnwM]</v>
+        <v>Account [cxiAwt/a]</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
@@ -1174,12 +1174,12 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="19" t="str">
         <f>_xll.Create.Geometry.Point?by_Double_Double_Double(H8,I8,J8)</f>
-        <v>Point [l/hHD6pM]</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+        <v>Point [AbIpqQ0e]</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
@@ -1225,13 +1225,13 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="25"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
@@ -1261,22 +1261,22 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="19" t="str">
         <f>_xll.Create.Geometry.Point?by_Double_Double_Double(H12,I12,J12)</f>
-        <v>Point [Z32MD4jm]</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
+        <v>Point [iylgr2rs]</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="str">
         <f>_xll.Create.Structure.Elements.Bar?by_Properties(H6,H10,H15)</f>
-        <v>Bar [temJu14q]</v>
+        <v>Bar [HoYa8VLj]</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="19"/>
+      <c r="P10" s="26"/>
       <c r="R10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +1290,7 @@
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>_xll.Adapter.Create.SpeckleAdapter?by_Account_String_String(B5,B8)</f>
-        <v>SpeckleAdapter [ltxapE4f]</v>
+        <v>SpeckleAdapter [Kh8UnHVK]</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1310,15 +1310,15 @@
       <c r="M11" s="6"/>
       <c r="O11" t="str">
         <f>L10</f>
-        <v>Bar [temJu14q]</v>
+        <v>Bar [HoYa8VLj]</v>
       </c>
       <c r="R11" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5" t="str">
         <f>_xll.Adapter.Push?by_BHoMAdapter_IEnumerableOfObject_String_PushType_ActionConfig_Boolean(B11,O11:O12,,,,R11)</f>
-        <v>List&lt;Object&gt; [CqKWU2t/]</v>
+        <v>List&lt;Object&gt; [V/+ppYtL]</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="6"/>
@@ -1343,7 +1343,7 @@
       <c r="M12" s="6"/>
       <c r="O12" t="str">
         <f>L25</f>
-        <v>Bar [3X2TnHeD]</v>
+        <v>Bar [exMt6fzK]</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="9"/>
@@ -1362,11 +1362,11 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G14" s="7"/>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
@@ -1402,23 +1402,23 @@
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G20" s="7"/>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G21" s="7"/>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="19" t="str">
         <f>_xll.Create.Geometry.Point?by_Double_Double_Double(H23,I23,J23)</f>
-        <v>Point [bQ63fmxk]</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
+        <v>Point [zC2A2eYU]</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -1466,16 +1466,16 @@
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G25" s="7"/>
-      <c r="H25" s="21" t="str">
+      <c r="H25" s="19" t="str">
         <f>_xll.Create.Geometry.Point?by_Double_Double_Double(H27,I27,J27)</f>
-        <v>Point [Mbnr6za7]</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
+        <v>Point [7hx939Dk]</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5" t="str">
         <f>_xll.Create.Structure.Elements.Bar?by_Properties(H21,H25,H30)</f>
-        <v>Bar [3X2TnHeD]</v>
+        <v>Bar [exMt6fzK]</v>
       </c>
       <c r="M25" s="6"/>
     </row>
@@ -1520,11 +1520,11 @@
     </row>
     <row r="29" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G29" s="7"/>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
